--- a/data/trans_bre/P74B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Edad-trans_bre.xlsx
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.246279523232704</v>
+        <v>-4.049935687997598</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-29.88521629903002</v>
+        <v>-31.8610823041348</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>72.40126554360614</v>
+        <v>59.46765831808764</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>37.80621044124519</v>
+        <v>39.49172914426114</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.483159442611172</v>
+        <v>6.618627909139908</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -710,18 +710,18 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.795054484151746</v>
+        <v>-6.602462537959168</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>13.94458025835812</v>
+        <v>15.59783095664273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.185346069429858</v>
+        <v>1.090112333375955</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.06140134576041493</v>
+        <v>-0.03243675098461412</v>
       </c>
     </row>
     <row r="9">
@@ -732,18 +732,18 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.5484525241346145</v>
+        <v>-0.5517793769915091</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>36.11296009548</v>
+        <v>35.6768011630576</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22.85617385709434</v>
+        <v>22.80643326365177</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>9.241902591164285</v>
+        <v>8.368618039115546</v>
       </c>
     </row>
     <row r="10">
@@ -784,20 +784,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>17.53565131419013</v>
+        <v>16.36188581434886</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.186904183782991</v>
+        <v>7.010390694573602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.098741473227429</v>
+        <v>7.72665927510854</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>1.28273153615097</v>
+        <v>1.27871488695335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.154247028238633</v>
+        <v>1.133962721138965</v>
       </c>
     </row>
     <row r="12">
@@ -808,20 +808,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>46.99080435607</v>
+        <v>43.59825145301326</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.38514212302578</v>
+        <v>21.38910263383676</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.7370149460012</v>
+        <v>24.66630494535598</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="n">
-        <v>8.393849065889546</v>
+        <v>8.577995035836713</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>8.855565338755826</v>
+        <v>9.752740266648749</v>
       </c>
     </row>
     <row r="13">
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>56.77967409445303</v>
+        <v>56.62431137445755</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>30.45796912650523</v>
+        <v>29.82929221611326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14.52235920527304</v>
+        <v>15.31805120267571</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13.70007313739825</v>
+        <v>13.1722089657011</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5.449593276469743</v>
+        <v>5.265686042192633</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.764650668794355</v>
+        <v>1.922869872547029</v>
       </c>
     </row>
     <row r="15">
@@ -888,22 +888,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>79.7602708198451</v>
+        <v>79.07549606371815</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>49.99886353561882</v>
+        <v>48.99998917271768</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>31.31550654561163</v>
+        <v>31.92974793937242</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>79.0102183541491</v>
+        <v>77.70751974044499</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26.44219268572794</v>
+        <v>23.11745646935475</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9.753384610721472</v>
+        <v>9.962849346588873</v>
       </c>
     </row>
     <row r="16">
@@ -944,22 +944,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>72.39825045586127</v>
+        <v>72.74568251967627</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>69.76938016017377</v>
+        <v>69.52860505383282</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64.60262679843264</v>
+        <v>64.8643970166291</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>5.874967317928839</v>
+        <v>6.0322313365534</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>5.557362423921519</v>
+        <v>5.357149727669441</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>5.257742435253643</v>
+        <v>5.236711366663798</v>
       </c>
     </row>
     <row r="18">
@@ -970,22 +970,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>84.75517721489739</v>
+        <v>85.03655798056103</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>81.91208867232278</v>
+        <v>81.82292793224258</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78.90476411886301</v>
+        <v>79.531056958661</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14.54499383994314</v>
+        <v>15.88431138184751</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>14.73833312404756</v>
+        <v>14.83211307342864</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>13.63133226037086</v>
+        <v>13.81640390741891</v>
       </c>
     </row>
     <row r="19">
@@ -1026,22 +1026,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>71.08306123117677</v>
+        <v>70.64035075578215</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>60.10705880489225</v>
+        <v>60.57560491990856</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>65.56825510021208</v>
+        <v>65.26149612015352</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>3.031274658190103</v>
+        <v>2.964634532541947</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.709441980317176</v>
+        <v>1.73134955962457</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.957305340999386</v>
+        <v>1.950459067562993</v>
       </c>
     </row>
     <row r="21">
@@ -1052,22 +1052,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>82.65714691904751</v>
+        <v>82.10713402874846</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>74.64243109735023</v>
+        <v>74.77066176453984</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>77.42345943213111</v>
+        <v>77.26020665328656</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>6.065578169573941</v>
+        <v>5.67424450869074</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.290617134931134</v>
+        <v>3.318423316780755</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.548264368401794</v>
+        <v>3.51899798849307</v>
       </c>
     </row>
     <row r="22">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>65.85294348327572</v>
+        <v>66.92463045001631</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>55.49073936233808</v>
+        <v>55.79808789170986</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>60.49018949615954</v>
+        <v>61.37099313607776</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2.60429501535157</v>
+        <v>2.624407046305434</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.273212208276212</v>
+        <v>1.285320253082034</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.681185303803125</v>
+        <v>1.712000990111813</v>
       </c>
     </row>
     <row r="24">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>82.41488207618954</v>
+        <v>83.14584313317998</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>71.9961655589827</v>
+        <v>71.22681776582273</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75.80871663914095</v>
+        <v>75.94095572233701</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>6.178963091620041</v>
+        <v>6.255422222793952</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.699119171534372</v>
+        <v>2.542874914658747</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>3.293706281608086</v>
+        <v>3.387247989114415</v>
       </c>
     </row>
     <row r="25">
@@ -1190,22 +1190,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>71.87719752796218</v>
+        <v>71.90171117820933</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>51.77572215808586</v>
+        <v>51.54251588514686</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>49.49478065432679</v>
+        <v>50.06605157068735</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>8.161821327167939</v>
+        <v>8.299817579688387</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3.649955968644591</v>
+        <v>3.627890238838849</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>3.556835991481049</v>
+        <v>3.582514551833675</v>
       </c>
     </row>
     <row r="27">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>78.72503023335814</v>
+        <v>78.53035722692705</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>59.43944765393616</v>
+        <v>59.18611269178641</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>57.19261064188205</v>
+        <v>57.3104928777646</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12.38752747464918</v>
+        <v>12.46162927480072</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5.336960878438317</v>
+        <v>5.419958858649117</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.1781832443528</v>
+        <v>5.204518912469164</v>
       </c>
     </row>
     <row r="28">
